--- a/XC-comparisons/HL_E-DAT_comparison.xlsx
+++ b/XC-comparisons/HL_E-DAT_comparison.xlsx
@@ -499,7 +499,7 @@
         <v>-98</v>
       </c>
       <c r="B4">
-        <v>-0.00100000000000122</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>-61</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.000999999999990564</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>-58</v>
       </c>
       <c r="B44">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>-54</v>
       </c>
       <c r="B48">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>-49</v>
       </c>
       <c r="B53">
-        <v>-0.00100000000000477</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>-46</v>
       </c>
       <c r="B56">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>-44</v>
       </c>
       <c r="B58">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>-43</v>
       </c>
       <c r="B59">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>-42</v>
       </c>
       <c r="B60">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>-40</v>
       </c>
       <c r="B62">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>-36</v>
       </c>
       <c r="B66">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C66">
         <v>2.8421709430404e-14</v>
@@ -2384,7 +2384,7 @@
         <v>-33</v>
       </c>
       <c r="B69">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>-2.8421709430404e-14</v>
@@ -2442,7 +2442,7 @@
         <v>-31</v>
       </c>
       <c r="B71">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>-30</v>
       </c>
       <c r="B72">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>-2.8421709430404e-14</v>
@@ -2529,7 +2529,7 @@
         <v>-28</v>
       </c>
       <c r="B74">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>-27</v>
       </c>
       <c r="B75">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>-26</v>
       </c>
       <c r="B76">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C76">
         <v>-0.00100000000000477</v>
@@ -2645,7 +2645,7 @@
         <v>-24</v>
       </c>
       <c r="B78">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>-23</v>
       </c>
       <c r="B79">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>-22</v>
       </c>
       <c r="B80">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>-2.8421709430404e-14</v>
@@ -2732,7 +2732,7 @@
         <v>-21</v>
       </c>
       <c r="B81">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>-2.8421709430404e-14</v>
@@ -2906,7 +2906,7 @@
         <v>-15</v>
       </c>
       <c r="B87">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>-14</v>
       </c>
       <c r="B88">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>-11</v>
       </c>
       <c r="B91">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C91">
         <v>2.8421709430404e-14</v>
@@ -3196,7 +3196,7 @@
         <v>-5</v>
       </c>
       <c r="B97">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="B110">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>11</v>
       </c>
       <c r="B113">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C113">
         <v>2.8421709430404e-14</v>
@@ -3689,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="B114">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="B121">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="B122">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>22</v>
       </c>
       <c r="B124">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>-2.8421709430404e-14</v>
@@ -4008,7 +4008,7 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>25</v>
       </c>
       <c r="B127">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C127">
         <v>-2.8421709430404e-14</v>
@@ -4095,7 +4095,7 @@
         <v>26</v>
       </c>
       <c r="B128">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C128">
         <v>-0.00100000000000477</v>
@@ -4211,7 +4211,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>-2.8421709430404e-14</v>
@@ -4269,7 +4269,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>34</v>
       </c>
       <c r="B136">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>2.8421709430404e-14</v>
@@ -4385,7 +4385,7 @@
         <v>36</v>
       </c>
       <c r="B138">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C138">
         <v>2.8421709430404e-14</v>
@@ -4414,7 +4414,7 @@
         <v>37</v>
       </c>
       <c r="B139">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>53</v>
       </c>
       <c r="B155">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>55</v>
       </c>
       <c r="B157">
-        <v>-0.00100000000000477</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>61</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>0.000999999999990564</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>65</v>
       </c>
       <c r="B167">
-        <v>-0.000999999999990564</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>74</v>
       </c>
       <c r="B176">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>-7.105427357601e-15</v>
@@ -12241,7 +12241,7 @@
         <v>-98</v>
       </c>
       <c r="B4">
-        <v>28.752</v>
+        <v>28.753</v>
       </c>
       <c r="C4">
         <v>28.753</v>
@@ -13314,7 +13314,7 @@
         <v>-61</v>
       </c>
       <c r="B41">
-        <v>75.808</v>
+        <v>75.809</v>
       </c>
       <c r="C41">
         <v>75.829</v>
@@ -13401,7 +13401,7 @@
         <v>-58</v>
       </c>
       <c r="B44">
-        <v>83.784</v>
+        <v>83.785</v>
       </c>
       <c r="C44">
         <v>83.814</v>
@@ -13517,7 +13517,7 @@
         <v>-54</v>
       </c>
       <c r="B48">
-        <v>96.278</v>
+        <v>96.279</v>
       </c>
       <c r="C48">
         <v>96.325</v>
@@ -13662,7 +13662,7 @@
         <v>-49</v>
       </c>
       <c r="B53">
-        <v>115.456</v>
+        <v>115.457</v>
       </c>
       <c r="C53">
         <v>115.545</v>
@@ -13749,7 +13749,7 @@
         <v>-46</v>
       </c>
       <c r="B56">
-        <v>129.121</v>
+        <v>129.122</v>
       </c>
       <c r="C56">
         <v>129.252</v>
@@ -13807,7 +13807,7 @@
         <v>-44</v>
       </c>
       <c r="B58">
-        <v>139.167</v>
+        <v>139.168</v>
       </c>
       <c r="C58">
         <v>139.338</v>
@@ -13836,7 +13836,7 @@
         <v>-43</v>
       </c>
       <c r="B59">
-        <v>144.461</v>
+        <v>144.462</v>
       </c>
       <c r="C59">
         <v>144.656</v>
@@ -13865,7 +13865,7 @@
         <v>-42</v>
       </c>
       <c r="B60">
-        <v>149.925</v>
+        <v>149.926</v>
       </c>
       <c r="C60">
         <v>150.148</v>
@@ -13923,7 +13923,7 @@
         <v>-40</v>
       </c>
       <c r="B62">
-        <v>161.303</v>
+        <v>161.304</v>
       </c>
       <c r="C62">
         <v>161.592</v>
@@ -14039,7 +14039,7 @@
         <v>-36</v>
       </c>
       <c r="B66">
-        <v>185.123</v>
+        <v>185.124</v>
       </c>
       <c r="C66">
         <v>185.603</v>
@@ -14126,7 +14126,7 @@
         <v>-33</v>
       </c>
       <c r="B69">
-        <v>202.539</v>
+        <v>202.54</v>
       </c>
       <c r="C69">
         <v>203.214</v>
@@ -14184,7 +14184,7 @@
         <v>-31</v>
       </c>
       <c r="B71">
-        <v>212.965</v>
+        <v>212.966</v>
       </c>
       <c r="C71">
         <v>213.783</v>
@@ -14213,7 +14213,7 @@
         <v>-30</v>
       </c>
       <c r="B72">
-        <v>217.58</v>
+        <v>217.581</v>
       </c>
       <c r="C72">
         <v>218.469</v>
@@ -14271,7 +14271,7 @@
         <v>-28</v>
       </c>
       <c r="B74">
-        <v>225.186</v>
+        <v>225.187</v>
       </c>
       <c r="C74">
         <v>226.202</v>
@@ -14300,7 +14300,7 @@
         <v>-27</v>
       </c>
       <c r="B75">
-        <v>228.014</v>
+        <v>228.015</v>
       </c>
       <c r="C75">
         <v>229.079</v>
@@ -14329,7 +14329,7 @@
         <v>-26</v>
       </c>
       <c r="B76">
-        <v>230.098</v>
+        <v>230.099</v>
       </c>
       <c r="C76">
         <v>231.196</v>
@@ -14387,7 +14387,7 @@
         <v>-24</v>
       </c>
       <c r="B78">
-        <v>231.823</v>
+        <v>231.824</v>
       </c>
       <c r="C78">
         <v>232.93</v>
@@ -14416,7 +14416,7 @@
         <v>-23</v>
       </c>
       <c r="B79">
-        <v>231.408</v>
+        <v>231.409</v>
       </c>
       <c r="C79">
         <v>232.485</v>
@@ -14445,7 +14445,7 @@
         <v>-22</v>
       </c>
       <c r="B80">
-        <v>230.141</v>
+        <v>230.142</v>
       </c>
       <c r="C80">
         <v>231.164</v>
@@ -14474,7 +14474,7 @@
         <v>-21</v>
       </c>
       <c r="B81">
-        <v>228.053</v>
+        <v>228.054</v>
       </c>
       <c r="C81">
         <v>228.999</v>
@@ -14648,7 +14648,7 @@
         <v>-15</v>
       </c>
       <c r="B87">
-        <v>203.518</v>
+        <v>203.519</v>
       </c>
       <c r="C87">
         <v>203.799</v>
@@ -14677,7 +14677,7 @@
         <v>-14</v>
       </c>
       <c r="B88">
-        <v>198.801</v>
+        <v>198.802</v>
       </c>
       <c r="C88">
         <v>199</v>
@@ -14764,7 +14764,7 @@
         <v>-11</v>
       </c>
       <c r="B91">
-        <v>187.067</v>
+        <v>187.068</v>
       </c>
       <c r="C91">
         <v>187.131</v>
@@ -14938,7 +14938,7 @@
         <v>-5</v>
       </c>
       <c r="B97">
-        <v>180.807</v>
+        <v>180.808</v>
       </c>
       <c r="C97">
         <v>180.907</v>
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>182.814</v>
+        <v>182.815</v>
       </c>
       <c r="C102">
         <v>183.018</v>
@@ -15228,7 +15228,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>180.807</v>
+        <v>180.808</v>
       </c>
       <c r="C107">
         <v>180.907</v>
@@ -15286,7 +15286,7 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>180.621</v>
+        <v>180.622</v>
       </c>
       <c r="C109">
         <v>180.679</v>
@@ -15315,7 +15315,7 @@
         <v>8</v>
       </c>
       <c r="B110">
-        <v>181.225</v>
+        <v>181.226</v>
       </c>
       <c r="C110">
         <v>181.273</v>
@@ -15402,7 +15402,7 @@
         <v>11</v>
       </c>
       <c r="B113">
-        <v>187.067</v>
+        <v>187.068</v>
       </c>
       <c r="C113">
         <v>187.131</v>
@@ -15431,7 +15431,7 @@
         <v>12</v>
       </c>
       <c r="B114">
-        <v>190.424</v>
+        <v>190.425</v>
       </c>
       <c r="C114">
         <v>190.516</v>
@@ -15634,7 +15634,7 @@
         <v>19</v>
       </c>
       <c r="B121">
-        <v>221.681</v>
+        <v>221.682</v>
       </c>
       <c r="C121">
         <v>222.418</v>
@@ -15663,7 +15663,7 @@
         <v>20</v>
       </c>
       <c r="B122">
-        <v>225.204</v>
+        <v>225.205</v>
       </c>
       <c r="C122">
         <v>226.053</v>
@@ -15721,7 +15721,7 @@
         <v>22</v>
       </c>
       <c r="B124">
-        <v>230.141</v>
+        <v>230.142</v>
       </c>
       <c r="C124">
         <v>231.164</v>
@@ -15750,7 +15750,7 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>231.408</v>
+        <v>231.409</v>
       </c>
       <c r="C125">
         <v>232.485</v>
@@ -15779,7 +15779,7 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>231.823</v>
+        <v>231.824</v>
       </c>
       <c r="C126">
         <v>232.93</v>
@@ -15808,7 +15808,7 @@
         <v>25</v>
       </c>
       <c r="B127">
-        <v>231.38</v>
+        <v>231.381</v>
       </c>
       <c r="C127">
         <v>232.494</v>
@@ -15837,7 +15837,7 @@
         <v>26</v>
       </c>
       <c r="B128">
-        <v>230.098</v>
+        <v>230.099</v>
       </c>
       <c r="C128">
         <v>231.196</v>
@@ -15953,7 +15953,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>217.58</v>
+        <v>217.581</v>
       </c>
       <c r="C132">
         <v>218.469</v>
@@ -16011,7 +16011,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>207.923</v>
+        <v>207.924</v>
       </c>
       <c r="C134">
         <v>208.669</v>
@@ -16069,7 +16069,7 @@
         <v>34</v>
       </c>
       <c r="B136">
-        <v>196.895</v>
+        <v>196.896</v>
       </c>
       <c r="C136">
         <v>197.501</v>
@@ -16127,7 +16127,7 @@
         <v>36</v>
       </c>
       <c r="B138">
-        <v>185.123</v>
+        <v>185.124</v>
       </c>
       <c r="C138">
         <v>185.603</v>
@@ -16156,7 +16156,7 @@
         <v>37</v>
       </c>
       <c r="B139">
-        <v>179.125</v>
+        <v>179.126</v>
       </c>
       <c r="C139">
         <v>179.55</v>
@@ -16185,7 +16185,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>173.127</v>
+        <v>173.128</v>
       </c>
       <c r="C140">
         <v>173.502</v>
@@ -16620,7 +16620,7 @@
         <v>53</v>
       </c>
       <c r="B155">
-        <v>99.776</v>
+        <v>99.777</v>
       </c>
       <c r="C155">
         <v>99.83</v>
@@ -16678,7 +16678,7 @@
         <v>55</v>
       </c>
       <c r="B157">
-        <v>92.936</v>
+        <v>92.937</v>
       </c>
       <c r="C157">
         <v>92.978</v>
@@ -16852,7 +16852,7 @@
         <v>61</v>
       </c>
       <c r="B163">
-        <v>75.808</v>
+        <v>75.809</v>
       </c>
       <c r="C163">
         <v>75.829</v>
@@ -16968,7 +16968,7 @@
         <v>65</v>
       </c>
       <c r="B167">
-        <v>66.723</v>
+        <v>66.724</v>
       </c>
       <c r="C167">
         <v>66.737</v>
@@ -17229,7 +17229,7 @@
         <v>74</v>
       </c>
       <c r="B176">
-        <v>51.23</v>
+        <v>51.231</v>
       </c>
       <c r="C176">
         <v>51.236</v>
@@ -18112,7 +18112,7 @@
         <v>-98</v>
       </c>
       <c r="B4">
-        <v>-0.00347801892042718</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19185,7 +19185,7 @@
         <v>-61</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.00131910459179064</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>-58</v>
       </c>
       <c r="B44">
-        <v>-0.00119354530696859</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -19388,7 +19388,7 @@
         <v>-54</v>
       </c>
       <c r="B48">
-        <v>-0.00103865888363963</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -19533,7 +19533,7 @@
         <v>-49</v>
       </c>
       <c r="B53">
-        <v>-0.000866130820403249</v>
+        <v>-1.23083526466148e-14</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -19620,7 +19620,7 @@
         <v>-46</v>
       </c>
       <c r="B56">
-        <v>-0.000774467360076808</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -19678,7 +19678,7 @@
         <v>-44</v>
       </c>
       <c r="B58">
-        <v>-0.00071856115315037</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -19707,7 +19707,7 @@
         <v>-43</v>
       </c>
       <c r="B59">
-        <v>-0.000692228352292158</v>
+        <v>-1.96741768980106e-14</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -19736,7 +19736,7 @@
         <v>-42</v>
       </c>
       <c r="B60">
-        <v>-0.000667000166753226</v>
+        <v>-1.8957158485122e-14</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -19794,7 +19794,7 @@
         <v>-40</v>
       </c>
       <c r="B62">
-        <v>-0.000619951271832994</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -19910,7 +19910,7 @@
         <v>-36</v>
       </c>
       <c r="B66">
-        <v>-0.000540181392929672</v>
+        <v>-1.53527956561029e-14</v>
       </c>
       <c r="C66">
         <v>1.53131735103441e-14</v>
@@ -19997,7 +19997,7 @@
         <v>-33</v>
       </c>
       <c r="B69">
-        <v>-0.000493732071356516</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>-1.39860981184387e-14</v>
@@ -20055,7 +20055,7 @@
         <v>-31</v>
       </c>
       <c r="B71">
-        <v>-0.000469560725929779</v>
+        <v>1.33456558466629e-14</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -20084,7 +20084,7 @@
         <v>-30</v>
       </c>
       <c r="B72">
-        <v>-0.000459601066263606</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>-1.30094930770059e-14</v>
@@ -20142,7 +20142,7 @@
         <v>-28</v>
       </c>
       <c r="B74">
-        <v>-0.000444077340511744</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -20171,7 +20171,7 @@
         <v>-27</v>
       </c>
       <c r="B75">
-        <v>-0.000438569561507782</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -20200,7 +20200,7 @@
         <v>-26</v>
       </c>
       <c r="B76">
-        <v>-0.000434597432400444</v>
+        <v>-1.23519482615761e-14</v>
       </c>
       <c r="C76">
         <v>-0.000432533434836578</v>
@@ -20258,7 +20258,7 @@
         <v>-24</v>
       </c>
       <c r="B78">
-        <v>-0.00043136358342562</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -20287,7 +20287,7 @@
         <v>-23</v>
       </c>
       <c r="B79">
-        <v>-0.000432137177640011</v>
+        <v>-1.22820242213587e-14</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -20316,7 +20316,7 @@
         <v>-22</v>
       </c>
       <c r="B80">
-        <v>-0.000434516231355897</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>-1.2295041369073e-14</v>
@@ -20345,7 +20345,7 @@
         <v>-21</v>
       </c>
       <c r="B81">
-        <v>-0.000438494560477071</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>-1.24112810232377e-14</v>
@@ -20519,7 +20519,7 @@
         <v>-15</v>
       </c>
       <c r="B87">
-        <v>-0.000491357029847372</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -20548,7 +20548,7 @@
         <v>-14</v>
       </c>
       <c r="B88">
-        <v>-0.000503015578409161</v>
+        <v>-1.42964906944618e-14</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -20635,7 +20635,7 @@
         <v>-11</v>
       </c>
       <c r="B91">
-        <v>-0.000534567828626296</v>
+        <v>1.51932502781898e-14</v>
       </c>
       <c r="C91">
         <v>1.51881352797794e-14</v>
@@ -20809,7 +20809,7 @@
         <v>-5</v>
       </c>
       <c r="B97">
-        <v>-0.000553075931797317</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -20954,7 +20954,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>-0.000547004058772728</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -21099,7 +21099,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>-0.000553075931797317</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -21157,7 +21157,7 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>-0.000553645478656842</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -21186,7 +21186,7 @@
         <v>8</v>
       </c>
       <c r="B110">
-        <v>-0.000551800248312747</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -21273,7 +21273,7 @@
         <v>11</v>
       </c>
       <c r="B113">
-        <v>-0.000534567828626296</v>
+        <v>1.51932502781898e-14</v>
       </c>
       <c r="C113">
         <v>1.51881352797794e-14</v>
@@ -21302,7 +21302,7 @@
         <v>12</v>
       </c>
       <c r="B114">
-        <v>-0.00052514388942821</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -21505,7 +21505,7 @@
         <v>19</v>
       </c>
       <c r="B121">
-        <v>-0.000451098650766089</v>
+        <v>-1.28209369413863e-14</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -21534,7 +21534,7 @@
         <v>20</v>
       </c>
       <c r="B122">
-        <v>-0.000444041846505735</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -21592,7 +21592,7 @@
         <v>22</v>
       </c>
       <c r="B124">
-        <v>-0.000434516231355897</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>-1.2295041369073e-14</v>
@@ -21621,7 +21621,7 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>-0.000432137177640011</v>
+        <v>-1.22820242213587e-14</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -21650,7 +21650,7 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>-0.00043136358342562</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -21679,7 +21679,7 @@
         <v>25</v>
       </c>
       <c r="B127">
-        <v>-0.000432189471854245</v>
+        <v>1.22835105001724e-14</v>
       </c>
       <c r="C127">
         <v>-1.2224706629162e-14</v>
@@ -21708,7 +21708,7 @@
         <v>26</v>
       </c>
       <c r="B128">
-        <v>-0.000434597432400444</v>
+        <v>-1.23519482615761e-14</v>
       </c>
       <c r="C128">
         <v>-0.000432533434836578</v>
@@ -21824,7 +21824,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>-0.000459601066263606</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>-1.30094930770059e-14</v>
@@ -21882,7 +21882,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>-0.000480947273752675</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -21940,7 +21940,7 @@
         <v>34</v>
       </c>
       <c r="B136">
-        <v>-0.000507884913266641</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>1.43906660879712e-14</v>
@@ -21998,7 +21998,7 @@
         <v>36</v>
       </c>
       <c r="B138">
-        <v>-0.000540181392929672</v>
+        <v>-1.53527956561029e-14</v>
       </c>
       <c r="C138">
         <v>1.53131735103441e-14</v>
@@ -22027,7 +22027,7 @@
         <v>37</v>
       </c>
       <c r="B139">
-        <v>-0.000558269364955396</v>
+        <v>1.58668810950973e-14</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -22056,7 +22056,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>-0.000577610655747719</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -22491,7 +22491,7 @@
         <v>53</v>
       </c>
       <c r="B155">
-        <v>-0.00100224502886944</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>55</v>
       </c>
       <c r="B157">
-        <v>-0.00107600929672546</v>
+        <v>-1.52908472569612e-14</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>61</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>0.00131910459179064</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -22839,7 +22839,7 @@
         <v>65</v>
       </c>
       <c r="B167">
-        <v>-0.0014987335701191</v>
+        <v>2.12979658221959e-14</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -23100,7 +23100,7 @@
         <v>74</v>
       </c>
       <c r="B176">
-        <v>-0.00195198126098922</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>-1.38680368444082e-14</v>

--- a/XC-comparisons/HL_E-DAT_comparison.xlsx
+++ b/XC-comparisons/HL_E-DAT_comparison.xlsx
@@ -4501,7 +4501,7 @@
         <v>40</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>0.00100000000000477</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4907,7 +4907,7 @@
         <v>54</v>
       </c>
       <c r="B156">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -16243,7 +16243,7 @@
         <v>40</v>
       </c>
       <c r="B142">
-        <v>161.303</v>
+        <v>161.304</v>
       </c>
       <c r="C142">
         <v>161.592</v>
@@ -16649,7 +16649,7 @@
         <v>54</v>
       </c>
       <c r="B156">
-        <v>96.278</v>
+        <v>96.279</v>
       </c>
       <c r="C156">
         <v>96.325</v>
@@ -22114,7 +22114,7 @@
         <v>40</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>0.000619947428461027</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -22520,7 +22520,7 @@
         <v>54</v>
       </c>
       <c r="B156">
-        <v>-0.00103865888363963</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>0</v>
